--- a/TradeSimulation/report/THAI-Mar-May23.xlsx
+++ b/TradeSimulation/report/THAI-Mar-May23.xlsx
@@ -9,16 +9,16 @@
   <sheets>
     <sheet name="TotalPort" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="2" r:id="rId2"/>
-    <sheet name="TISCOFLEXP" sheetId="3" r:id="rId3"/>
-    <sheet name="TISCOMS-A" sheetId="4" r:id="rId4"/>
-    <sheet name="TSF-A" sheetId="5" r:id="rId5"/>
+    <sheet name="KFDYNAMIC" sheetId="3" r:id="rId3"/>
+    <sheet name="TSF-A" sheetId="4" r:id="rId4"/>
+    <sheet name="TISCOFLEXP" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="27">
   <si>
     <t>BuyValue</t>
   </si>
@@ -47,7 +47,7 @@
     <t>TISCOFLEXP</t>
   </si>
   <si>
-    <t>TISCOMS-A</t>
+    <t>KFDYNAMIC</t>
   </si>
   <si>
     <t>TSF-A</t>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>-inf</t>
-  </si>
-  <si>
-    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -488,13 +485,13 @@
         <v>300000</v>
       </c>
       <c r="B2">
-        <v>300790</v>
+        <v>303293</v>
       </c>
       <c r="C2">
-        <v>790</v>
+        <v>3293</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -541,19 +538,19 @@
         <v>100000</v>
       </c>
       <c r="C2">
-        <v>55.04</v>
+        <v>55.42</v>
       </c>
       <c r="D2">
-        <v>100796</v>
+        <v>102087</v>
       </c>
       <c r="E2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F2">
-        <v>796</v>
+        <v>2087</v>
       </c>
       <c r="G2">
-        <v>0.8</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -564,19 +561,19 @@
         <v>100000</v>
       </c>
       <c r="C3">
-        <v>19.82</v>
+        <v>39.31</v>
       </c>
       <c r="D3">
-        <v>100555</v>
+        <v>100751</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F3">
-        <v>555</v>
+        <v>751</v>
       </c>
       <c r="G3">
-        <v>0.5600000000000001</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -587,19 +584,19 @@
         <v>100000</v>
       </c>
       <c r="C4">
-        <v>76.55</v>
+        <v>76.72</v>
       </c>
       <c r="D4">
-        <v>99439</v>
+        <v>100455</v>
       </c>
       <c r="E4">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F4">
-        <v>-561</v>
+        <v>455</v>
       </c>
       <c r="G4">
-        <v>-0.5600000000000001</v>
+        <v>0.46</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +606,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -661,203 +658,244 @@
         <v>45006</v>
       </c>
       <c r="B2">
-        <v>55.46</v>
+        <v>38.94</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F2">
-        <v>56.01</v>
+        <v>39.13</v>
       </c>
       <c r="G2">
-        <v>446.3488662738797</v>
+        <v>511.1167901865576</v>
       </c>
       <c r="H2">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="I2">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="J2">
-        <v>446.3488662738797</v>
+        <v>511.1167901865576</v>
       </c>
       <c r="K2">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L2">
-        <v>446.3488662738797</v>
+        <v>511.1167901865576</v>
       </c>
       <c r="M2">
-        <v>56.01</v>
+        <v>39.13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2">
-        <v>45044</v>
+        <v>45021</v>
       </c>
       <c r="B3">
-        <v>53.42</v>
+        <v>39.1</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F3">
-        <v>53.95</v>
+        <v>39.3</v>
       </c>
       <c r="G3">
-        <v>463.3920296570899</v>
+        <v>508.9058524173028</v>
       </c>
       <c r="H3">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="I3">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="J3">
-        <v>463.3920296570899</v>
+        <v>508.9058524173028</v>
       </c>
       <c r="K3">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="L3">
-        <v>909.7408959309696</v>
+        <v>1020.02264260386</v>
       </c>
       <c r="M3">
-        <v>54.96</v>
+        <v>39.21</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2">
-        <v>45054</v>
+        <v>45044</v>
       </c>
       <c r="B4">
-        <v>55.17</v>
+        <v>38.82</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F4">
-        <v>55.72</v>
+        <v>39.01</v>
       </c>
       <c r="G4">
-        <v>448.6719310839914</v>
+        <v>512.6890540886952</v>
       </c>
       <c r="H4">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="I4">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="J4">
-        <v>448.6719310839914</v>
+        <v>512.6890540886952</v>
       </c>
       <c r="K4">
-        <v>75000</v>
+        <v>60000</v>
       </c>
       <c r="L4">
-        <v>1358.412827014961</v>
+        <v>1532.711696692556</v>
       </c>
       <c r="M4">
-        <v>55.21</v>
+        <v>39.15</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2">
-        <v>45069</v>
+        <v>45054</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>39.8</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F5">
-        <v>54.54</v>
+        <v>40</v>
       </c>
       <c r="G5">
-        <v>458.3791712504584</v>
+        <v>500</v>
       </c>
       <c r="H5">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="I5">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="J5">
-        <v>458.3791712504584</v>
+        <v>500</v>
       </c>
       <c r="K5">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="L5">
-        <v>1816.791998265419</v>
+        <v>2032.711696692556</v>
       </c>
       <c r="M5">
-        <v>55.04</v>
+        <v>39.36</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2">
-        <v>45079</v>
+        <v>45078</v>
       </c>
       <c r="B6">
-        <v>55.48</v>
+        <v>38.96</v>
       </c>
       <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>39.15</v>
+      </c>
+      <c r="G6">
+        <v>510.8556832694764</v>
+      </c>
+      <c r="H6">
+        <v>20000</v>
+      </c>
+      <c r="I6">
+        <v>20000</v>
+      </c>
+      <c r="J6">
+        <v>510.8556832694764</v>
+      </c>
+      <c r="K6">
+        <v>100000</v>
+      </c>
+      <c r="L6">
+        <v>2543.567379962032</v>
+      </c>
+      <c r="M6">
+        <v>39.31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B7">
+        <v>39.81</v>
+      </c>
+      <c r="C7">
         <v>100</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="E6">
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <v>39.61</v>
+      </c>
+      <c r="G7">
+        <v>2543.567379962032</v>
+      </c>
+      <c r="H7">
+        <v>100751</v>
+      </c>
+      <c r="I7">
+        <v>-100751</v>
+      </c>
+      <c r="J7">
+        <v>-2543.567379962032</v>
+      </c>
+      <c r="K7">
+        <v>-751</v>
+      </c>
+      <c r="L7">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>55.48</v>
-      </c>
-      <c r="G6">
-        <v>1816.791998265419</v>
-      </c>
-      <c r="H6">
-        <v>100796</v>
-      </c>
-      <c r="I6">
-        <v>-100796</v>
-      </c>
-      <c r="J6">
-        <v>-1816.791998265419</v>
-      </c>
-      <c r="K6">
-        <v>-796</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="M7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -868,7 +906,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -920,203 +958,244 @@
         <v>45006</v>
       </c>
       <c r="B2">
-        <v>19.82</v>
+        <v>76.69</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="F2">
-        <v>20.02</v>
+        <v>77.5</v>
       </c>
       <c r="G2">
-        <v>1248.751248751249</v>
+        <v>258.0645161290323</v>
       </c>
       <c r="H2">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="I2">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="J2">
-        <v>1248.751248751249</v>
+        <v>258.0645161290323</v>
       </c>
       <c r="K2">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L2">
-        <v>1248.751248751249</v>
+        <v>258.0645161290323</v>
       </c>
       <c r="M2">
-        <v>20.02</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2">
-        <v>45044</v>
+        <v>45021</v>
       </c>
       <c r="B3">
-        <v>19.25</v>
+        <v>76.31999999999999</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="F3">
-        <v>19.44</v>
+        <v>77.12</v>
       </c>
       <c r="G3">
-        <v>1286.008230452675</v>
+        <v>259.3360995850622</v>
       </c>
       <c r="H3">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="I3">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="J3">
-        <v>1286.008230452675</v>
+        <v>259.3360995850622</v>
       </c>
       <c r="K3">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="L3">
-        <v>2534.759479203924</v>
+        <v>517.4006157140946</v>
       </c>
       <c r="M3">
-        <v>19.73</v>
+        <v>77.31</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2">
-        <v>45054</v>
+        <v>45044</v>
       </c>
       <c r="B4">
-        <v>19.71</v>
+        <v>74.42</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="F4">
-        <v>19.91</v>
+        <v>75.2</v>
       </c>
       <c r="G4">
-        <v>1255.650426921145</v>
+        <v>265.9574468085106</v>
       </c>
       <c r="H4">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="I4">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="J4">
-        <v>1255.650426921145</v>
+        <v>265.9574468085106</v>
       </c>
       <c r="K4">
-        <v>75000</v>
+        <v>60000</v>
       </c>
       <c r="L4">
-        <v>3790.409906125069</v>
+        <v>783.3580625226052</v>
       </c>
       <c r="M4">
-        <v>19.79</v>
+        <v>76.59</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2">
-        <v>45069</v>
+        <v>45054</v>
       </c>
       <c r="B5">
-        <v>19.72</v>
+        <v>76.39</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="F5">
-        <v>19.92</v>
+        <v>77.19</v>
       </c>
       <c r="G5">
-        <v>1255.020080321285</v>
+        <v>259.1009198082653</v>
       </c>
       <c r="H5">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="I5">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="J5">
-        <v>1255.020080321285</v>
+        <v>259.1009198082653</v>
       </c>
       <c r="K5">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="L5">
-        <v>5045.429986446354</v>
+        <v>1042.458982330871</v>
       </c>
       <c r="M5">
-        <v>19.82</v>
+        <v>76.73999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2">
-        <v>45079</v>
+        <v>45078</v>
       </c>
       <c r="B6">
-        <v>19.93</v>
+        <v>75.84</v>
       </c>
       <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>1.05</v>
+      </c>
+      <c r="F6">
+        <v>76.64</v>
+      </c>
+      <c r="G6">
+        <v>260.9603340292276</v>
+      </c>
+      <c r="H6">
+        <v>20000</v>
+      </c>
+      <c r="I6">
+        <v>20000</v>
+      </c>
+      <c r="J6">
+        <v>260.9603340292276</v>
+      </c>
+      <c r="K6">
+        <v>100000</v>
+      </c>
+      <c r="L6">
+        <v>1303.419316360098</v>
+      </c>
+      <c r="M6">
+        <v>76.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B7">
+        <v>77.06999999999999</v>
+      </c>
+      <c r="C7">
         <v>100</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>19.93</v>
-      </c>
-      <c r="G6">
-        <v>5045.429986446354</v>
-      </c>
-      <c r="H6">
-        <v>100555</v>
-      </c>
-      <c r="I6">
-        <v>-100555</v>
-      </c>
-      <c r="J6">
-        <v>-5045.429986446354</v>
-      </c>
-      <c r="K6">
-        <v>-555</v>
-      </c>
-      <c r="L6">
+      <c r="F7">
+        <v>77.06999999999999</v>
+      </c>
+      <c r="G7">
+        <v>1303.419316360098</v>
+      </c>
+      <c r="H7">
+        <v>100455</v>
+      </c>
+      <c r="I7">
+        <v>-100455</v>
+      </c>
+      <c r="J7">
+        <v>-1303.419316360098</v>
+      </c>
+      <c r="K7">
+        <v>-455</v>
+      </c>
+      <c r="L7">
         <v>0</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1127,7 +1206,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1179,204 +1258,245 @@
         <v>45006</v>
       </c>
       <c r="B2">
-        <v>76.69</v>
+        <v>55.46</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>77.5</v>
+        <v>56.01</v>
       </c>
       <c r="G2">
-        <v>322.5806451612903</v>
+        <v>357.0790930191038</v>
       </c>
       <c r="H2">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="I2">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="J2">
-        <v>322.5806451612903</v>
+        <v>357.0790930191038</v>
       </c>
       <c r="K2">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L2">
-        <v>322.5806451612903</v>
+        <v>357.0790930191038</v>
       </c>
       <c r="M2">
-        <v>77.5</v>
+        <v>56.01</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2">
-        <v>45044</v>
+        <v>45021</v>
       </c>
       <c r="B3">
-        <v>74.42</v>
+        <v>55.03</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>75.2</v>
+        <v>55.58</v>
       </c>
       <c r="G3">
-        <v>332.4468085106383</v>
+        <v>359.8416696653472</v>
       </c>
       <c r="H3">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="I3">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="J3">
-        <v>332.4468085106383</v>
+        <v>359.8416696653472</v>
       </c>
       <c r="K3">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="L3">
-        <v>655.0274536719286</v>
+        <v>716.920762684451</v>
       </c>
       <c r="M3">
-        <v>76.33</v>
+        <v>55.79</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2">
-        <v>45054</v>
+        <v>45044</v>
       </c>
       <c r="B4">
-        <v>76.39</v>
+        <v>53.42</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>77.19</v>
+        <v>53.95</v>
       </c>
       <c r="G4">
-        <v>323.8761497603317</v>
+        <v>370.7136237256719</v>
       </c>
       <c r="H4">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="I4">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="J4">
-        <v>323.8761497603317</v>
+        <v>370.7136237256719</v>
       </c>
       <c r="K4">
-        <v>75000</v>
+        <v>60000</v>
       </c>
       <c r="L4">
-        <v>978.9036034322603</v>
+        <v>1087.634386410123</v>
       </c>
       <c r="M4">
-        <v>76.62</v>
+        <v>55.17</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2">
-        <v>45069</v>
+        <v>45054</v>
       </c>
       <c r="B5">
-        <v>75.56</v>
+        <v>55.17</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>76.34999999999999</v>
+        <v>55.72</v>
       </c>
       <c r="G5">
-        <v>327.4394237066143</v>
+        <v>358.9375448671931</v>
       </c>
       <c r="H5">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="I5">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="J5">
-        <v>327.4394237066143</v>
+        <v>358.9375448671931</v>
       </c>
       <c r="K5">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="L5">
-        <v>1306.343027138875</v>
+        <v>1446.571931277316</v>
       </c>
       <c r="M5">
-        <v>76.55</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2">
-        <v>45079</v>
+        <v>45078</v>
       </c>
       <c r="B6">
-        <v>76.12</v>
+        <v>55.36</v>
       </c>
       <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>55.91</v>
+      </c>
+      <c r="G6">
+        <v>357.7177606868181</v>
+      </c>
+      <c r="H6">
+        <v>20000</v>
+      </c>
+      <c r="I6">
+        <v>20000</v>
+      </c>
+      <c r="J6">
+        <v>357.7177606868181</v>
+      </c>
+      <c r="K6">
+        <v>100000</v>
+      </c>
+      <c r="L6">
+        <v>1804.289691964134</v>
+      </c>
+      <c r="M6">
+        <v>55.42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B7">
+        <v>56.58</v>
+      </c>
+      <c r="C7">
         <v>100</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>76.12</v>
-      </c>
-      <c r="G6">
-        <v>1306.343027138875</v>
-      </c>
-      <c r="H6">
-        <v>99439</v>
-      </c>
-      <c r="I6">
-        <v>-99439</v>
-      </c>
-      <c r="J6">
-        <v>-1306.343027138875</v>
-      </c>
-      <c r="K6">
-        <v>561</v>
-      </c>
-      <c r="L6">
+      <c r="F7">
+        <v>56.58</v>
+      </c>
+      <c r="G7">
+        <v>1804.289691964134</v>
+      </c>
+      <c r="H7">
+        <v>102087</v>
+      </c>
+      <c r="I7">
+        <v>-102087</v>
+      </c>
+      <c r="J7">
+        <v>-1804.289691964134</v>
+      </c>
+      <c r="K7">
+        <v>-2087</v>
+      </c>
+      <c r="L7">
         <v>0</v>
       </c>
-      <c r="M6" t="s">
-        <v>27</v>
+      <c r="M7" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
